--- a/GameDesign/ExcelData/Faction_Data.xlsx
+++ b/GameDesign/ExcelData/Faction_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-makeEnd\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD4F172-225C-411D-BA4E-A05ADE0D3D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B651877-5DFE-47F3-AD10-FF03E1F793A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>long</t>
   </si>
@@ -163,6 +163,21 @@
   </si>
   <si>
     <t>[1, 0, 0, 0.2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle1</t>
+  </si>
+  <si>
+    <t>battle1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -520,9 +535,10 @@
     <col min="9" max="9" width="13.77734375" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="15.88671875" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -556,8 +572,11 @@
       <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -591,8 +610,11 @@
       <c r="K2" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="L2" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -626,8 +648,11 @@
       <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="L3" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -661,8 +686,11 @@
       <c r="K4" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -695,6 +723,9 @@
       </c>
       <c r="K5" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/Faction_Data.xlsx
+++ b/GameDesign/ExcelData/Faction_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-makeEnd\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B651877-5DFE-47F3-AD10-FF03E1F793A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A962C5DD-2070-4154-9D75-D2C76550D356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>long</t>
   </si>
@@ -114,38 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[0, 0, 1, 1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1, 1, 0, 1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1, 0.5, 0, 1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pathColor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>walkColor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supportColor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0, 0.5, 0, 1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.5, 0, 0, 1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>areaColor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,6 +146,14 @@
   </si>
   <si>
     <t>battle2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pathMaterialIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -227,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -236,6 +212,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -516,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -530,15 +510,14 @@
     <col min="4" max="4" width="17.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="2"/>
     <col min="6" max="6" width="13.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -564,19 +543,14 @@
         <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -596,25 +570,20 @@
         <v>23</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -634,25 +603,20 @@
         <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -672,25 +636,20 @@
         <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -710,23 +669,18 @@
         <v>16</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="K5" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
